--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\Desktop\企画書2019\06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB71739-75E4-4FB9-AB53-3DCCCC0AC08A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{EFB71739-75E4-4FB9-AB53-3DCCCC0AC08A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{36AD3EC5-229E-45F6-8130-5F7C0583B723}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="410" windowWidth="11030" windowHeight="9990" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
+    <workbookView xWindow="12150" yWindow="230" windowWidth="7050" windowHeight="9990" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>1号車</t>
     <rPh sb="1" eb="3">
@@ -188,9 +188,6 @@
     <t>高橋　慎也</t>
   </si>
   <si>
-    <t>新田　雄一郎</t>
-  </si>
-  <si>
     <t>東　聖</t>
   </si>
   <si>
@@ -201,6 +198,139 @@
   </si>
   <si>
     <t>塩谷　祐佳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妻鳥 貴彦先生</t>
+  </si>
+  <si>
+    <t>敷田 幹文先生</t>
+  </si>
+  <si>
+    <t>栗原 徹先生</t>
+  </si>
+  <si>
+    <t>濵村 昌則先生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先生6</t>
+    <rPh sb="0" eb="2">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福本 昌弘先生</t>
+  </si>
+  <si>
+    <t>横山 和俊先生</t>
+  </si>
+  <si>
+    <t>吉田 真一先生</t>
+  </si>
+  <si>
+    <t>篠森 敬三先生</t>
+  </si>
+  <si>
+    <t>中原 潔先生</t>
+  </si>
+  <si>
+    <t>村上和子先生</t>
+    <rPh sb="0" eb="2">
+      <t>ムラカミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カズコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先生7</t>
+    <rPh sb="0" eb="2">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四宮有貴先生</t>
+    <rPh sb="0" eb="2">
+      <t>シノミヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長田さん</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川越さん</t>
+    <rPh sb="0" eb="2">
+      <t>カワゴエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高田 喜郎先生</t>
+  </si>
+  <si>
+    <t>井形元彦先生</t>
+    <rPh sb="0" eb="2">
+      <t>イガタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モトヒコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩村聡先生</t>
+    <rPh sb="0" eb="2">
+      <t>イワムラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内 聖悟先生</t>
+  </si>
+  <si>
+    <t>繁桝 博昭先生</t>
+  </si>
+  <si>
+    <t>鵜川 始陽先生</t>
+  </si>
+  <si>
+    <t>原田隆司先生</t>
+    <rPh sb="0" eb="2">
+      <t>ハラダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -269,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -292,13 +422,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +465,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,17 +783,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4822CD-C0C1-441F-81F3-54A6F0D34B63}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -687,147 +832,201 @@
         <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{EFB71739-75E4-4FB9-AB53-3DCCCC0AC08A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{36AD3EC5-229E-45F6-8130-5F7C0583B723}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{EFB71739-75E4-4FB9-AB53-3DCCCC0AC08A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E0072F0F-0624-4FFC-8B2D-EF0F29B6E694}"/>
   <bookViews>
-    <workbookView xWindow="12150" yWindow="230" windowWidth="7050" windowHeight="9990" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>1号車</t>
     <rPh sb="1" eb="3">
@@ -122,9 +122,6 @@
     <t>スタッフ6</t>
   </si>
   <si>
-    <t>スタッフ7</t>
-  </si>
-  <si>
     <t>伊崎　侑真</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,9 +171,6 @@
   <si>
     <t>日下　泉</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>真壁　巧</t>
   </si>
   <si>
     <t>別役　志朗</t>
@@ -321,7 +315,17 @@
     <t>鵜川 始陽先生</t>
   </si>
   <si>
-    <t>原田隆司先生</t>
+    <t>新田　雄一郎</t>
+    <rPh sb="0" eb="2">
+      <t>ニッタ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ユウイチロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原田崇司先生</t>
     <rPh sb="0" eb="2">
       <t>ハラダ</t>
     </rPh>
@@ -441,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +472,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4822CD-C0C1-441F-81F3-54A6F0D34B63}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -812,13 +825,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -826,13 +839,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -840,13 +853,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -854,13 +867,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -868,13 +881,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -882,13 +895,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -896,38 +909,38 @@
         <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -936,13 +949,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -950,13 +963,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -964,13 +977,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -978,13 +991,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -992,13 +1005,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -1006,22 +1019,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="4"/>

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{EFB71739-75E4-4FB9-AB53-3DCCCC0AC08A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E0072F0F-0624-4FFC-8B2D-EF0F29B6E694}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32197147-FA38-344E-93F8-05D48C2E70C6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
+    <workbookView xWindow="4080" yWindow="1280" windowWidth="19420" windowHeight="13180" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>1号車</t>
     <rPh sb="1" eb="3">
@@ -122,92 +116,6 @@
     <t>スタッフ6</t>
   </si>
   <si>
-    <t>伊崎　侑真</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青山　陽樹</t>
-  </si>
-  <si>
-    <t>北村　陽典</t>
-  </si>
-  <si>
-    <t>中島　伶也</t>
-  </si>
-  <si>
-    <t>高橋　龍一</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>丸田　啓太</t>
-  </si>
-  <si>
-    <t>吉田　翔真</t>
-  </si>
-  <si>
-    <t>新川　奈瑠美</t>
-  </si>
-  <si>
-    <t>角原　有紀</t>
-  </si>
-  <si>
-    <t>渡辺　奈実</t>
-  </si>
-  <si>
-    <t>小谷　拳聖</t>
-  </si>
-  <si>
-    <t>斎藤　大騎</t>
-  </si>
-  <si>
-    <t>立岩　宇宙</t>
-  </si>
-  <si>
-    <t>藤田　竜世</t>
-  </si>
-  <si>
-    <t>生野　晴也</t>
-  </si>
-  <si>
-    <t>日下　泉</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>別役　志朗</t>
-  </si>
-  <si>
-    <t>高島　歩佳</t>
-  </si>
-  <si>
-    <t>高橋　慎也</t>
-  </si>
-  <si>
-    <t>東　聖</t>
-  </si>
-  <si>
-    <t>石野　杏奈</t>
-  </si>
-  <si>
-    <t>江川　真菜実</t>
-  </si>
-  <si>
-    <t>塩谷　祐佳</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>妻鳥 貴彦先生</t>
-  </si>
-  <si>
-    <t>敷田 幹文先生</t>
-  </si>
-  <si>
-    <t>栗原 徹先生</t>
-  </si>
-  <si>
-    <t>濵村 昌則先生</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>先生6</t>
     <rPh sb="0" eb="2">
       <t>センセイ</t>
@@ -215,34 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>福本 昌弘先生</t>
-  </si>
-  <si>
-    <t>横山 和俊先生</t>
-  </si>
-  <si>
-    <t>吉田 真一先生</t>
-  </si>
-  <si>
-    <t>篠森 敬三先生</t>
-  </si>
-  <si>
-    <t>中原 潔先生</t>
-  </si>
-  <si>
-    <t>村上和子先生</t>
-    <rPh sb="0" eb="2">
-      <t>ムラカミ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カズコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>先生7</t>
     <rPh sb="0" eb="2">
       <t>センセイ</t>
@@ -250,99 +130,140 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>四宮有貴先生</t>
-    <rPh sb="0" eb="2">
-      <t>シノミヤ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ユキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>藤田 竜世</t>
+  </si>
+  <si>
+    <t>北村 陽典</t>
+  </si>
+  <si>
+    <t>妻鳥先生</t>
+  </si>
+  <si>
+    <t>敷田先生</t>
+  </si>
+  <si>
+    <t>栗原先生</t>
+  </si>
+  <si>
+    <t>濵村先生</t>
   </si>
   <si>
     <t>長田さん</t>
-    <rPh sb="0" eb="2">
-      <t>ナガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>川越さん</t>
-    <rPh sb="0" eb="2">
-      <t>カワゴエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高田 喜郎先生</t>
-  </si>
-  <si>
-    <t>井形元彦先生</t>
-    <rPh sb="0" eb="2">
-      <t>イガタ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モトヒコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岩村聡先生</t>
-    <rPh sb="0" eb="2">
-      <t>イワムラ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>竹内 聖悟先生</t>
-  </si>
-  <si>
-    <t>繁桝 博昭先生</t>
-  </si>
-  <si>
-    <t>鵜川 始陽先生</t>
+  </si>
+  <si>
+    <t>竹内先生</t>
+  </si>
+  <si>
+    <t>伊崎 侑真</t>
+  </si>
+  <si>
+    <t>齋藤 大騎</t>
+  </si>
+  <si>
+    <t>生野 晴也</t>
+  </si>
+  <si>
+    <t>高島 歩佳</t>
+  </si>
+  <si>
+    <t>高橋 慎也</t>
+  </si>
+  <si>
+    <t>石野 杏奈</t>
+  </si>
+  <si>
+    <t>中島 伶也</t>
+  </si>
+  <si>
+    <t>高橋 龍一</t>
+  </si>
+  <si>
+    <t>福本先生</t>
+  </si>
+  <si>
+    <t>横山先生</t>
+  </si>
+  <si>
+    <t>吉田先生</t>
+  </si>
+  <si>
+    <t>篠森先生</t>
+  </si>
+  <si>
+    <t>中原先生</t>
+  </si>
+  <si>
+    <t>村上先生</t>
+  </si>
+  <si>
+    <t>四宮先生</t>
+  </si>
+  <si>
+    <t>吉田 翔真</t>
+  </si>
+  <si>
+    <t>渡辺 奈実</t>
+  </si>
+  <si>
+    <t>立岩 宇宙</t>
+  </si>
+  <si>
+    <t>日下 泉</t>
   </si>
   <si>
     <t>新田　雄一郎</t>
-    <rPh sb="0" eb="2">
-      <t>ニッタ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ユウイチロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>原田崇司先生</t>
-    <rPh sb="0" eb="2">
-      <t>ハラダ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タカシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別役 志朗</t>
+  </si>
+  <si>
+    <t>丸田 啓太</t>
+  </si>
+  <si>
+    <t>塩谷 祐佳</t>
+  </si>
+  <si>
+    <t>門田先生</t>
+  </si>
+  <si>
+    <t>高田先生</t>
+  </si>
+  <si>
+    <t>鵜川先生</t>
+  </si>
+  <si>
+    <t>繁桝先生</t>
+  </si>
+  <si>
+    <t>原田先生</t>
+  </si>
+  <si>
+    <t>青山 陽樹</t>
+  </si>
+  <si>
+    <t>新川 奈瑠美</t>
+  </si>
+  <si>
+    <t>角原 有紀</t>
+  </si>
+  <si>
+    <t>小谷 拳聖</t>
+  </si>
+  <si>
+    <t>東 聖</t>
+  </si>
+  <si>
+    <t>江川 真菜実</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,16 +720,16 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -820,222 +741,219 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="19" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="19" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" ht="19" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>33</v>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>34</v>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>36</v>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:4">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32197147-FA38-344E-93F8-05D48C2E70C6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{A58B83E3-2075-468F-AF06-EFE1270ABD13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1280" windowWidth="19420" windowHeight="13180" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
+    <workbookView xWindow="8690" yWindow="120" windowWidth="8800" windowHeight="9990" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,13 +394,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,13 +723,13 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" thickBot="1">
+    <row r="1" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19" thickBot="1">
+    <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -755,7 +755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19" thickBot="1">
+    <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -769,7 +769,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19" thickBot="1">
+    <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -783,7 +783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19" thickBot="1">
+    <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -797,7 +797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19" thickBot="1">
+    <row r="6" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -811,7 +811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19" thickBot="1">
+    <row r="7" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -825,7 +825,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19" thickBot="1">
+    <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -839,7 +839,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19" thickBot="1">
+    <row r="9" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -851,7 +851,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="19" thickBot="1">
+    <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -863,7 +863,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="19" thickBot="1">
+    <row r="11" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -877,7 +877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19" thickBot="1">
+    <row r="12" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -891,7 +891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19" thickBot="1">
+    <row r="13" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -905,7 +905,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19" thickBot="1">
+    <row r="14" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -919,7 +919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19" thickBot="1">
+    <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -933,7 +933,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19" thickBot="1">
+    <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -947,13 +947,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9"/>
       <c r="B17" s="4"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{A58B83E3-2075-468F-AF06-EFE1270ABD13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F296AA8F-04ED-9945-B9F7-F39E19E9A3C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8690" yWindow="120" windowWidth="8800" windowHeight="9990" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
+    <workbookView xWindow="8700" yWindow="460" windowWidth="10000" windowHeight="10000" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,18 +163,12 @@
     <t>齋藤 大騎</t>
   </si>
   <si>
-    <t>生野 晴也</t>
-  </si>
-  <si>
     <t>高島 歩佳</t>
   </si>
   <si>
     <t>高橋 慎也</t>
   </si>
   <si>
-    <t>石野 杏奈</t>
-  </si>
-  <si>
     <t>中島 伶也</t>
   </si>
   <si>
@@ -205,21 +199,12 @@
     <t>吉田 翔真</t>
   </si>
   <si>
-    <t>渡辺 奈実</t>
-  </si>
-  <si>
     <t>立岩 宇宙</t>
   </si>
   <si>
-    <t>日下 泉</t>
-  </si>
-  <si>
     <t>新田　雄一郎</t>
   </si>
   <si>
-    <t>別役 志朗</t>
-  </si>
-  <si>
     <t>丸田 啓太</t>
   </si>
   <si>
@@ -244,26 +229,242 @@
     <t>青山 陽樹</t>
   </si>
   <si>
-    <t>新川 奈瑠美</t>
-  </si>
-  <si>
-    <t>角原 有紀</t>
-  </si>
-  <si>
-    <t>小谷 拳聖</t>
-  </si>
-  <si>
-    <t>東 聖</t>
-  </si>
-  <si>
     <t>江川 真菜実</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小谷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>拳聖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>東</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>聖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>別役</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>志朗</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生野</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>晴也</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>泉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>石野</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>杏奈</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>渡辺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>奈実</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>角原</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>有紀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>新川</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>奈瑠美</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +509,16 @@
       <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
     </font>
   </fonts>
   <fills count="3">
@@ -366,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,6 +612,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,16 +937,16 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -741,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="19" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -749,13 +966,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -763,13 +980,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -777,13 +994,13 @@
         <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -791,13 +1008,13 @@
         <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -805,13 +1022,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -819,13 +1036,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -833,37 +1050,37 @@
         <v>24</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>40</v>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" ht="19" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" ht="19" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -871,89 +1088,89 @@
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
+      <c r="B13" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>41</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D15" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>43</v>
+      <c r="B16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="4"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F296AA8F-04ED-9945-B9F7-F39E19E9A3C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88A03C-7BED-EC48-8DA6-42E3B8125250}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="460" windowWidth="10000" windowHeight="10000" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
+    <workbookView xWindow="4440" yWindow="460" windowWidth="14780" windowHeight="12840" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>1号車</t>
     <rPh sb="1" eb="3">
@@ -123,13 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>先生7</t>
-    <rPh sb="0" eb="2">
-      <t>センセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>藤田 竜世</t>
   </si>
   <si>
@@ -166,9 +159,6 @@
     <t>高島 歩佳</t>
   </si>
   <si>
-    <t>高橋 慎也</t>
-  </si>
-  <si>
     <t>中島 伶也</t>
   </si>
   <si>
@@ -202,9 +192,6 @@
     <t>立岩 宇宙</t>
   </si>
   <si>
-    <t>新田　雄一郎</t>
-  </si>
-  <si>
     <t>丸田 啓太</t>
   </si>
   <si>
@@ -217,12 +204,6 @@
     <t>高田先生</t>
   </si>
   <si>
-    <t>鵜川先生</t>
-  </si>
-  <si>
-    <t>繁桝先生</t>
-  </si>
-  <si>
     <t>原田先生</t>
   </si>
   <si>
@@ -230,36 +211,6 @@
   </si>
   <si>
     <t>江川 真菜実</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小谷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>拳聖</t>
-    </r>
   </si>
   <si>
     <r>
@@ -285,8 +236,32 @@
     </r>
   </si>
   <si>
+    <t>別役 志朗</t>
+  </si>
+  <si>
+    <t>小谷 拳聖</t>
+  </si>
+  <si>
+    <t>生野 晴也</t>
+  </si>
+  <si>
+    <t>角原 有紀</t>
+  </si>
+  <si>
+    <t>日下 泉</t>
+  </si>
+  <si>
+    <t>新川 奈瑠美</t>
+  </si>
+  <si>
+    <t>石野 杏奈</t>
+  </si>
+  <si>
+    <t>渡辺 奈実</t>
+  </si>
+  <si>
     <r>
-      <t>別役</t>
+      <t>高橋</t>
     </r>
     <r>
       <rPr>
@@ -304,21 +279,10 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>志朗</t>
+      <t>慎也</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>生野</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -327,136 +291,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>晴也</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>日下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>泉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>石野</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>杏奈</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>渡辺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>奈実</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>角原</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>有紀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>新川</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>奈瑠美</t>
+      <t>新田　雄一郎</t>
     </r>
   </si>
 </sst>
@@ -464,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +354,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -577,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,16 +451,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4822CD-C0C1-441F-81F3-54A6F0D34B63}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -963,13 +803,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19" thickBot="1">
@@ -977,13 +817,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" thickBot="1">
@@ -991,13 +831,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" thickBot="1">
@@ -1005,13 +845,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" thickBot="1">
@@ -1019,13 +859,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" thickBot="1">
@@ -1033,13 +873,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19" thickBot="1">
@@ -1047,13 +887,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19" thickBot="1">
@@ -1061,118 +901,103 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="19" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="19" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="19" thickBot="1">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88A03C-7BED-EC48-8DA6-42E3B8125250}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE3631-C372-0747-BAFE-DE9CA56A8781}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="460" windowWidth="14780" windowHeight="12840" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
@@ -129,27 +129,6 @@
     <t>北村 陽典</t>
   </si>
   <si>
-    <t>妻鳥先生</t>
-  </si>
-  <si>
-    <t>敷田先生</t>
-  </si>
-  <si>
-    <t>栗原先生</t>
-  </si>
-  <si>
-    <t>濵村先生</t>
-  </si>
-  <si>
-    <t>長田さん</t>
-  </si>
-  <si>
-    <t>川越さん</t>
-  </si>
-  <si>
-    <t>竹内先生</t>
-  </si>
-  <si>
     <t>伊崎 侑真</t>
   </si>
   <si>
@@ -165,27 +144,6 @@
     <t>高橋 龍一</t>
   </si>
   <si>
-    <t>福本先生</t>
-  </si>
-  <si>
-    <t>横山先生</t>
-  </si>
-  <si>
-    <t>吉田先生</t>
-  </si>
-  <si>
-    <t>篠森先生</t>
-  </si>
-  <si>
-    <t>中原先生</t>
-  </si>
-  <si>
-    <t>村上先生</t>
-  </si>
-  <si>
-    <t>四宮先生</t>
-  </si>
-  <si>
     <t>吉田 翔真</t>
   </si>
   <si>
@@ -196,15 +154,6 @@
   </si>
   <si>
     <t>塩谷 祐佳</t>
-  </si>
-  <si>
-    <t>門田先生</t>
-  </si>
-  <si>
-    <t>高田先生</t>
-  </si>
-  <si>
-    <t>原田先生</t>
   </si>
   <si>
     <t>青山 陽樹</t>
@@ -293,6 +242,57 @@
       </rPr>
       <t>新田　雄一郎</t>
     </r>
+  </si>
+  <si>
+    <t>門田 宏先生</t>
+  </si>
+  <si>
+    <t>高田 喜朗先生</t>
+  </si>
+  <si>
+    <t>竹内 聖悟先生</t>
+  </si>
+  <si>
+    <t>中原 潔先生</t>
+  </si>
+  <si>
+    <t>原田 崇司先生</t>
+  </si>
+  <si>
+    <t>福本 昌弘先生</t>
+  </si>
+  <si>
+    <t>横山 和俊先生</t>
+  </si>
+  <si>
+    <t>吉田 真一先生</t>
+  </si>
+  <si>
+    <t>篠森 敬三先生</t>
+  </si>
+  <si>
+    <t>村上 和子先生</t>
+  </si>
+  <si>
+    <t>四宮 有貴先生</t>
+  </si>
+  <si>
+    <t>妻鳥 貴彦先生</t>
+  </si>
+  <si>
+    <t>敷田 幹文先生</t>
+  </si>
+  <si>
+    <t>栗原 徹先生</t>
+  </si>
+  <si>
+    <t>濵村 昌則先生</t>
+  </si>
+  <si>
+    <t>長田 ゆうさん</t>
+  </si>
+  <si>
+    <t>川越 智予さん</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -806,10 +806,10 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19" thickBot="1">
@@ -820,10 +820,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" thickBot="1">
@@ -831,13 +831,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" thickBot="1">
@@ -845,13 +845,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" thickBot="1">
@@ -859,13 +859,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" thickBot="1">
@@ -873,13 +873,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19" thickBot="1">
@@ -887,13 +887,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19" thickBot="1">
@@ -901,10 +901,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -913,13 +913,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19" thickBot="1">
@@ -927,13 +927,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19" thickBot="1">
@@ -941,13 +941,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" thickBot="1">
@@ -955,13 +955,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" thickBot="1">
@@ -969,13 +969,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19" thickBot="1">
@@ -983,13 +983,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4">

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE3631-C372-0747-BAFE-DE9CA56A8781}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{DB5211E8-4DD2-4E89-882B-FB5A2E4A6975}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5FC86CD8-2E6D-46A5-9907-E42BBE5270C9}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="460" windowWidth="14780" windowHeight="12840" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
+    <workbookView xWindow="9030" yWindow="460" windowWidth="8800" windowHeight="9990" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>1号車</t>
     <rPh sb="1" eb="3">
@@ -170,6 +170,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -217,6 +219,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+        <family val="1"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -299,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,19 +353,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <family val="1"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -420,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,9 +455,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,16 +774,16 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" thickBot="1">
+    <row r="1" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -798,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19" thickBot="1">
+    <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -812,7 +809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19" thickBot="1">
+    <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -826,7 +823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19" thickBot="1">
+    <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -840,7 +837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19" thickBot="1">
+    <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -854,7 +851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19" thickBot="1">
+    <row r="6" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -868,7 +865,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19" thickBot="1">
+    <row r="7" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -882,7 +879,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19" thickBot="1">
+    <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -896,7 +893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19" thickBot="1">
+    <row r="9" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -908,7 +905,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="19" thickBot="1">
+    <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -922,7 +919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19" thickBot="1">
+    <row r="11" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -936,7 +933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19" thickBot="1">
+    <row r="12" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -950,7 +947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19" thickBot="1">
+    <row r="13" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -964,7 +961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19" thickBot="1">
+    <row r="14" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -978,11 +975,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19" thickBot="1">
+    <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -992,10 +989,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="114_{DB5211E8-4DD2-4E89-882B-FB5A2E4A6975}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5FC86CD8-2E6D-46A5-9907-E42BBE5270C9}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="114_{DB5211E8-4DD2-4E89-882B-FB5A2E4A6975}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{803FDC29-52D5-4BB9-AE1E-489A14C5DD8B}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="460" windowWidth="8800" windowHeight="9990" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>1号車</t>
     <rPh sb="1" eb="3">
@@ -298,12 +298,39 @@
   <si>
     <t>川越 智予さん</t>
   </si>
+  <si>
+    <t>スタッフ7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤田　竜貴</t>
+    <rPh sb="0" eb="2">
+      <t>フジタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小野　歩</t>
+    <rPh sb="0" eb="2">
+      <t>オノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +390,27 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -378,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -414,13 +462,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,13 +509,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,7 +853,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -883,10 +962,10 @@
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -900,7 +979,7 @@
       <c r="B9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="6"/>
@@ -915,7 +994,7 @@
       <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -954,10 +1033,10 @@
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -968,7 +1047,7 @@
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -976,21 +1055,30 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="4"/>

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="114_{DB5211E8-4DD2-4E89-882B-FB5A2E4A6975}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{803FDC29-52D5-4BB9-AE1E-489A14C5DD8B}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="114_{DB5211E8-4DD2-4E89-882B-FB5A2E4A6975}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{AE38BBE5-B0D6-4F5A-9547-B713C11EB8F1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>1号車</t>
     <rPh sb="1" eb="3">
@@ -322,6 +322,22 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>アユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田 亜矢子さん</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -481,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,9 +547,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,13 +866,15 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -951,8 +966,8 @@
       <c r="B7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>49</v>
+      <c r="C7" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>44</v>
@@ -982,7 +997,9 @@
       <c r="C9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
@@ -1076,7 +1093,7 @@
       <c r="C16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="11" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="114_{DB5211E8-4DD2-4E89-882B-FB5A2E4A6975}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{AE38BBE5-B0D6-4F5A-9547-B713C11EB8F1}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="114_{DB5211E8-4DD2-4E89-882B-FB5A2E4A6975}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8D5F5C01-40BA-460F-B35D-D3B4ED9F1888}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>1号車</t>
     <rPh sb="1" eb="3">
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>村上 和子先生</t>
-  </si>
-  <si>
-    <t>四宮 有貴先生</t>
   </si>
   <si>
     <t>妻鳥 貴彦先生</t>
@@ -866,7 +863,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -922,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>46</v>
@@ -936,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>47</v>
@@ -950,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>48</v>
@@ -964,10 +961,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>44</v>
@@ -978,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>50</v>
@@ -992,11 +989,9 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>51</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="8" t="s">
         <v>49</v>
       </c>
@@ -1087,14 +1082,14 @@
     </row>
     <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="114_{DB5211E8-4DD2-4E89-882B-FB5A2E4A6975}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8D5F5C01-40BA-460F-B35D-D3B4ED9F1888}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BA1DB9-2267-844C-9F59-573ACE9F4707}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="11020" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>1号車</t>
     <rPh sb="1" eb="3">
@@ -338,12 +338,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>繁桝 博昭先生</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,11 +866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4822CD-C0C1-441F-81F3-54A6F0D34B63}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -874,7 +878,7 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -886,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="19" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,7 +904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="19" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,7 +918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" ht="19" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -928,7 +932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" ht="19" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -942,7 +946,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" ht="19" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -956,7 +960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" ht="29" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -970,7 +974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" ht="19" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -984,19 +988,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" ht="19" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" ht="19" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" ht="19" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" ht="19" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" ht="19" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" ht="19" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" ht="19" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" ht="19" thickBot="1">
       <c r="A16" s="15" t="s">
         <v>57</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:4">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BA1DB9-2267-844C-9F59-573ACE9F4707}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{88036037-01B7-43AF-B9E3-25C89A71BA44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="11020" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,11 +866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4822CD-C0C1-441F-81F3-54A6F0D34B63}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -878,7 +878,7 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" thickBot="1">
+    <row r="1" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19" thickBot="1">
+    <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,7 +904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19" thickBot="1">
+    <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -918,7 +918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19" thickBot="1">
+    <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -932,7 +932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19" thickBot="1">
+    <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -946,7 +946,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19" thickBot="1">
+    <row r="6" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -960,7 +960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" thickBot="1">
+    <row r="7" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -974,7 +974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19" thickBot="1">
+    <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -988,7 +988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19" thickBot="1">
+    <row r="9" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19" thickBot="1">
+    <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19" thickBot="1">
+    <row r="11" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19" thickBot="1">
+    <row r="12" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19" thickBot="1">
+    <row r="13" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19" thickBot="1">
+    <row r="14" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19" thickBot="1">
+    <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19" thickBot="1">
+    <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="15" t="s">
         <v>57</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>

--- a/Ver4/04/busHaichi.xlsx
+++ b/Ver4/04/busHaichi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{88036037-01B7-43AF-B9E3-25C89A71BA44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369151DD-F575-47BC-A1B5-D28D2F62CBBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="8800" windowHeight="9990" xr2:uid="{8FBB8A24-360E-4740-AF62-B5A708008E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>1号車</t>
     <rPh sb="1" eb="3">
@@ -340,6 +340,26 @@
   </si>
   <si>
     <t>繁桝 博昭先生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先生7</t>
+    <rPh sb="0" eb="2">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井形 元彦先生</t>
+    <rPh sb="0" eb="2">
+      <t>イガタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モトヒコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -492,13 +512,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,6 +584,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4822CD-C0C1-441F-81F3-54A6F0D34B63}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1004,103 +1042,113 @@
     </row>
     <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="13" t="s">
+    <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="11" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
